--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Fasl</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1118776666666667</v>
+        <v>0.068049</v>
       </c>
       <c r="H2">
-        <v>0.335633</v>
+        <v>0.204147</v>
       </c>
       <c r="I2">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="J2">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.104042</v>
+        <v>3.042047666666666</v>
       </c>
       <c r="N2">
-        <v>18.312126</v>
+        <v>9.126142999999999</v>
       </c>
       <c r="O2">
-        <v>0.2173731183071527</v>
+        <v>0.1400448830218481</v>
       </c>
       <c r="P2">
-        <v>0.2173731183071527</v>
+        <v>0.140044883021848</v>
       </c>
       <c r="Q2">
-        <v>0.6829059761953333</v>
+        <v>0.207008301669</v>
       </c>
       <c r="R2">
-        <v>6.146153785758</v>
+        <v>1.863074715021</v>
       </c>
       <c r="S2">
-        <v>0.05926370523845135</v>
+        <v>0.02346075292893702</v>
       </c>
       <c r="T2">
-        <v>0.05926370523845134</v>
+        <v>0.023460752928937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1118776666666667</v>
+        <v>0.068049</v>
       </c>
       <c r="H3">
-        <v>0.335633</v>
+        <v>0.204147</v>
       </c>
       <c r="I3">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="J3">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.564835</v>
       </c>
       <c r="O3">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322029</v>
       </c>
       <c r="P3">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322028</v>
       </c>
       <c r="Q3">
-        <v>1.102548251728333</v>
+        <v>0.6706191523049999</v>
       </c>
       <c r="R3">
-        <v>9.922934265555</v>
+        <v>6.035572370744999</v>
       </c>
       <c r="S3">
-        <v>0.09568095298511214</v>
+        <v>0.07600289512445614</v>
       </c>
       <c r="T3">
-        <v>0.09568095298511214</v>
+        <v>0.07600289512445611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1118776666666667</v>
+        <v>0.068049</v>
       </c>
       <c r="H4">
-        <v>0.335633</v>
+        <v>0.204147</v>
       </c>
       <c r="I4">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="J4">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.320282333333334</v>
+        <v>4.111990666666666</v>
       </c>
       <c r="N4">
-        <v>9.960847000000001</v>
+        <v>12.335972</v>
       </c>
       <c r="O4">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="P4">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="Q4">
-        <v>0.3714654401278889</v>
+        <v>0.2798168528759999</v>
       </c>
       <c r="R4">
-        <v>3.343188961151001</v>
+        <v>2.518351675884</v>
       </c>
       <c r="S4">
-        <v>0.03223638263155859</v>
+        <v>0.03171232263512472</v>
       </c>
       <c r="T4">
-        <v>0.03223638263155859</v>
+        <v>0.0317123226351247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1118776666666667</v>
+        <v>0.068049</v>
       </c>
       <c r="H5">
-        <v>0.335633</v>
+        <v>0.204147</v>
       </c>
       <c r="I5">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="J5">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.593769333333333</v>
+        <v>2.157352</v>
       </c>
       <c r="N5">
-        <v>4.781308</v>
+        <v>6.472056</v>
       </c>
       <c r="O5">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812624</v>
       </c>
       <c r="P5">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812623</v>
       </c>
       <c r="Q5">
-        <v>0.1783071942182222</v>
+        <v>0.146805646248</v>
       </c>
       <c r="R5">
-        <v>1.604764747964</v>
+        <v>1.321250816232</v>
       </c>
       <c r="S5">
-        <v>0.01547379195437217</v>
+        <v>0.01663783996790806</v>
       </c>
       <c r="T5">
-        <v>0.01547379195437217</v>
+        <v>0.01663783996790806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1118776666666667</v>
+        <v>0.068049</v>
       </c>
       <c r="H6">
-        <v>0.335633</v>
+        <v>0.204147</v>
       </c>
       <c r="I6">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="J6">
-        <v>0.2726358516636381</v>
+        <v>0.1675230998998868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.207903666666667</v>
+        <v>2.555612666666667</v>
       </c>
       <c r="N6">
-        <v>21.623711</v>
+        <v>7.666838</v>
       </c>
       <c r="O6">
-        <v>0.2566831120232943</v>
+        <v>0.1176511732127647</v>
       </c>
       <c r="P6">
-        <v>0.2566831120232942</v>
+        <v>0.1176511732127646</v>
       </c>
       <c r="Q6">
-        <v>0.8064034437847778</v>
+        <v>0.173906886354</v>
       </c>
       <c r="R6">
-        <v>7.257630994063001</v>
+        <v>1.565161977186</v>
       </c>
       <c r="S6">
-        <v>0.06998101885414387</v>
+        <v>0.01970928924346086</v>
       </c>
       <c r="T6">
-        <v>0.06998101885414386</v>
+        <v>0.01970928924346085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>0.298478</v>
       </c>
       <c r="H7">
-        <v>0.8954340000000001</v>
+        <v>0.895434</v>
       </c>
       <c r="I7">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915988</v>
       </c>
       <c r="J7">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915986</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.104042</v>
+        <v>3.042047666666666</v>
       </c>
       <c r="N7">
-        <v>18.312126</v>
+        <v>9.126142999999999</v>
       </c>
       <c r="O7">
-        <v>0.2173731183071527</v>
+        <v>0.1400448830218481</v>
       </c>
       <c r="P7">
-        <v>0.2173731183071527</v>
+        <v>0.140044883021848</v>
       </c>
       <c r="Q7">
-        <v>1.821922248076</v>
+        <v>0.9079843034513332</v>
       </c>
       <c r="R7">
-        <v>16.397300232684</v>
+        <v>8.171858731061999</v>
       </c>
       <c r="S7">
-        <v>0.1581094130687014</v>
+        <v>0.1029040634355136</v>
       </c>
       <c r="T7">
-        <v>0.1581094130687014</v>
+        <v>0.1029040634355135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.298478</v>
       </c>
       <c r="H8">
-        <v>0.8954340000000001</v>
+        <v>0.895434</v>
       </c>
       <c r="I8">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915988</v>
       </c>
       <c r="J8">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915986</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.564835</v>
       </c>
       <c r="O8">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322029</v>
       </c>
       <c r="P8">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322028</v>
       </c>
       <c r="Q8">
         <v>2.94148427371</v>
@@ -948,10 +948,10 @@
         <v>26.47335846339</v>
       </c>
       <c r="S8">
-        <v>0.2552668493719953</v>
+        <v>0.333365547340261</v>
       </c>
       <c r="T8">
-        <v>0.2552668493719953</v>
+        <v>0.3333655473402609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,13 +977,13 @@
         <v>0.298478</v>
       </c>
       <c r="H9">
-        <v>0.8954340000000001</v>
+        <v>0.895434</v>
       </c>
       <c r="I9">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915988</v>
       </c>
       <c r="J9">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915986</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.320282333333334</v>
+        <v>4.111990666666666</v>
       </c>
       <c r="N9">
-        <v>9.960847000000001</v>
+        <v>12.335972</v>
       </c>
       <c r="O9">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="P9">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="Q9">
-        <v>0.9910312302886668</v>
+        <v>1.227338750205333</v>
       </c>
       <c r="R9">
-        <v>8.919281072598002</v>
+        <v>11.046048751848</v>
       </c>
       <c r="S9">
-        <v>0.08600332221595325</v>
+        <v>0.1390972774836773</v>
       </c>
       <c r="T9">
-        <v>0.08600332221595323</v>
+        <v>0.1390972774836772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,13 +1039,13 @@
         <v>0.298478</v>
       </c>
       <c r="H10">
-        <v>0.8954340000000001</v>
+        <v>0.895434</v>
       </c>
       <c r="I10">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915988</v>
       </c>
       <c r="J10">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.593769333333333</v>
+        <v>2.157352</v>
       </c>
       <c r="N10">
-        <v>4.781308</v>
+        <v>6.472056</v>
       </c>
       <c r="O10">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812624</v>
       </c>
       <c r="P10">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812623</v>
       </c>
       <c r="Q10">
-        <v>0.4757050830746667</v>
+        <v>0.6439221102559999</v>
       </c>
       <c r="R10">
-        <v>4.281345747672001</v>
+        <v>5.795298992304</v>
       </c>
       <c r="S10">
-        <v>0.0412824705105615</v>
+        <v>0.07297725459508975</v>
       </c>
       <c r="T10">
-        <v>0.04128247051056149</v>
+        <v>0.07297725459508972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1101,13 +1101,13 @@
         <v>0.298478</v>
       </c>
       <c r="H11">
-        <v>0.8954340000000001</v>
+        <v>0.895434</v>
       </c>
       <c r="I11">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915988</v>
       </c>
       <c r="J11">
-        <v>0.7273641483363619</v>
+        <v>0.7347934548915986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.207903666666667</v>
+        <v>2.555612666666667</v>
       </c>
       <c r="N11">
-        <v>21.623711</v>
+        <v>7.666838</v>
       </c>
       <c r="O11">
-        <v>0.2566831120232943</v>
+        <v>0.1176511732127647</v>
       </c>
       <c r="P11">
-        <v>0.2566831120232942</v>
+        <v>0.1176511732127646</v>
       </c>
       <c r="Q11">
-        <v>2.151400670619334</v>
+        <v>0.7627941575213333</v>
       </c>
       <c r="R11">
-        <v>19.362606035574</v>
+        <v>6.865147417692</v>
       </c>
       <c r="S11">
-        <v>0.1867020931691504</v>
+        <v>0.08644931203705726</v>
       </c>
       <c r="T11">
-        <v>0.1867020931691504</v>
+        <v>0.08644931203705723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03967966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.119039</v>
+      </c>
+      <c r="I12">
+        <v>0.09768344520851457</v>
+      </c>
+      <c r="J12">
+        <v>0.09768344520851455</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.042047666666666</v>
+      </c>
+      <c r="N12">
+        <v>9.126142999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1400448830218481</v>
+      </c>
+      <c r="P12">
+        <v>0.140044883021848</v>
+      </c>
+      <c r="Q12">
+        <v>0.1207074373974444</v>
+      </c>
+      <c r="R12">
+        <v>1.086366936577</v>
+      </c>
+      <c r="S12">
+        <v>0.01368006665739753</v>
+      </c>
+      <c r="T12">
+        <v>0.01368006665739752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03967966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.119039</v>
+      </c>
+      <c r="I13">
+        <v>0.09768344520851457</v>
+      </c>
+      <c r="J13">
+        <v>0.09768344520851455</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.854944999999999</v>
+      </c>
+      <c r="N13">
+        <v>29.564835</v>
+      </c>
+      <c r="O13">
+        <v>0.4536860598322029</v>
+      </c>
+      <c r="P13">
+        <v>0.4536860598322028</v>
+      </c>
+      <c r="Q13">
+        <v>0.3910409326183333</v>
+      </c>
+      <c r="R13">
+        <v>3.519368393565</v>
+      </c>
+      <c r="S13">
+        <v>0.04431761736748586</v>
+      </c>
+      <c r="T13">
+        <v>0.04431761736748584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03967966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.119039</v>
+      </c>
+      <c r="I14">
+        <v>0.09768344520851457</v>
+      </c>
+      <c r="J14">
+        <v>0.09768344520851455</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.111990666666666</v>
+      </c>
+      <c r="N14">
+        <v>12.335972</v>
+      </c>
+      <c r="O14">
+        <v>0.1893011928150581</v>
+      </c>
+      <c r="P14">
+        <v>0.1893011928150581</v>
+      </c>
+      <c r="Q14">
+        <v>0.1631624189897778</v>
+      </c>
+      <c r="R14">
+        <v>1.468461770908</v>
+      </c>
+      <c r="S14">
+        <v>0.01849159269625619</v>
+      </c>
+      <c r="T14">
+        <v>0.01849159269625618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03967966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.119039</v>
+      </c>
+      <c r="I15">
+        <v>0.09768344520851457</v>
+      </c>
+      <c r="J15">
+        <v>0.09768344520851455</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.157352</v>
+      </c>
+      <c r="N15">
+        <v>6.472056</v>
+      </c>
+      <c r="O15">
+        <v>0.09931669111812624</v>
+      </c>
+      <c r="P15">
+        <v>0.09931669111812623</v>
+      </c>
+      <c r="Q15">
+        <v>0.08560300824266667</v>
+      </c>
+      <c r="R15">
+        <v>0.770427074184</v>
+      </c>
+      <c r="S15">
+        <v>0.009701596555128452</v>
+      </c>
+      <c r="T15">
+        <v>0.009701596555128447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03967966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.119039</v>
+      </c>
+      <c r="I16">
+        <v>0.09768344520851457</v>
+      </c>
+      <c r="J16">
+        <v>0.09768344520851455</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.555612666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.666838</v>
+      </c>
+      <c r="O16">
+        <v>0.1176511732127647</v>
+      </c>
+      <c r="P16">
+        <v>0.1176511732127646</v>
+      </c>
+      <c r="Q16">
+        <v>0.1014058587424445</v>
+      </c>
+      <c r="R16">
+        <v>0.9126527286820001</v>
+      </c>
+      <c r="S16">
+        <v>0.01149257193224655</v>
+      </c>
+      <c r="T16">
+        <v>0.01149257193224655</v>
       </c>
     </row>
   </sheetData>
